--- a/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 37,74</t>
+          <t>21,48; 38,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,61; 50,19</t>
+          <t>36,35; 50,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,36; 43,11</t>
+          <t>32,58; 43,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 28,47</t>
+          <t>21,26; 28,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 41,82</t>
+          <t>32,34; 42,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 34,38</t>
+          <t>28,66; 34,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,51</t>
+          <t>16,69; 23,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 42,69</t>
+          <t>37,31; 42,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 32,35</t>
+          <t>27,37; 32,13</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 27,65</t>
+          <t>20,98; 27,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,22; 67,43</t>
+          <t>40,92; 66,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,52; 50,69</t>
+          <t>32,5; 52,09</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,4</t>
+          <t>21,68; 27,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,23; 43,49</t>
+          <t>37,38; 43,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,97; 35,56</t>
+          <t>30,66; 35,12</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,67; 24,97</t>
+          <t>21,48; 24,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,77</t>
+          <t>39,73; 47,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,69; 36,64</t>
+          <t>31,64; 37,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 38,57</t>
+          <t>21,31; 37,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,35; 50,49</t>
+          <t>36,61; 50,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,58; 43,19</t>
+          <t>32,36; 43,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,26; 28,31</t>
+          <t>21,05; 28,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 42,08</t>
+          <t>33,14; 41,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 34,42</t>
+          <t>28,91; 34,38</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 23,25</t>
+          <t>16,89; 23,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,31; 42,76</t>
+          <t>37,29; 42,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,37; 32,13</t>
+          <t>27,49; 32,35</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 27,76</t>
+          <t>20,86; 27,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,92; 66,2</t>
+          <t>41,22; 67,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,5; 52,09</t>
+          <t>32,52; 50,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,68; 27,44</t>
+          <t>21,78; 27,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,38; 43,61</t>
+          <t>37,23; 43,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,66; 35,12</t>
+          <t>30,97; 35,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,48; 24,77</t>
+          <t>21,67; 24,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,97</t>
+          <t>39,73; 47,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,64; 37,0</t>
+          <t>31,69; 36,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>31,68%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 37,74</t>
+          <t>21,39; 27,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,61; 50,19</t>
+          <t>30,56; 41,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,36; 43,11</t>
+          <t>28,25; 34,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>27,15%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 28,47</t>
+          <t>9,05; 21,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 41,82</t>
+          <t>37,58; 43,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 34,38</t>
+          <t>18,33; 31,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>40,8%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,51</t>
+          <t>20,49; 27,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 42,69</t>
+          <t>39,16; 76,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 32,35</t>
+          <t>31,4; 60,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>34,52%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 27,65</t>
+          <t>21,62; 27,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,22; 67,43</t>
+          <t>38,48; 56,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,52; 50,69</t>
+          <t>31,35; 43,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,4</t>
+          <t>16,86; 23,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,23; 43,49</t>
+          <t>39,51; 54,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,97; 35,56</t>
+          <t>29,69; 39,06</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>23,25%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>42,07%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>33,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>21,67; 24,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>39,73; 47,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>31,69; 36,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,39; 27,93</t>
+          <t>21,37; 28,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 41,38</t>
+          <t>28,26; 41,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 34,28</t>
+          <t>27,14; 34,04</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 21,83</t>
+          <t>9,43; 21,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,58; 43,09</t>
+          <t>37,67; 43,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 31,34</t>
+          <t>18,16; 31,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,39</t>
+          <t>20,26; 27,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 76,11</t>
+          <t>39,11; 74,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,4; 60,53</t>
+          <t>31,51; 61,03</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,62; 27,42</t>
+          <t>21,31; 27,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,48; 56,63</t>
+          <t>38,34; 54,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,35; 43,1</t>
+          <t>31,45; 43,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,95</t>
+          <t>17,15; 23,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,51; 54,29</t>
+          <t>39,58; 54,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,69; 39,06</t>
+          <t>29,83; 40,09</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>157098</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>274039</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>431137</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>135781; 179152</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>204943; 302228</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>369349; 463139</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>197650</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>386459</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>584109</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112513; 259818</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>361120; 413141</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>390670; 671170</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>167575</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>500704</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>668279</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>142779; 192632</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>365001; 698819</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>516068; 999725</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>225274</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>472548</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>697822</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>197486; 253420</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>419769; 602001</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>635878; 882065</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>747597</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1633750</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2381347</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>593275; 826212</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1469461; 2013722</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2139444; 2875621</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>